--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Ccl25-Ccr9.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Ccl25-Ccr9.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.26128717074901</v>
+        <v>4.406520666666666</v>
       </c>
       <c r="H2">
-        <v>4.26128717074901</v>
+        <v>13.219562</v>
       </c>
       <c r="I2">
-        <v>0.1648667713476862</v>
+        <v>0.1641109939536627</v>
       </c>
       <c r="J2">
-        <v>0.1648667713476862</v>
+        <v>0.1641109939536626</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.8952473303940059</v>
+        <v>0.943042</v>
       </c>
       <c r="N2">
-        <v>0.8952473303940059</v>
+        <v>2.829126</v>
       </c>
       <c r="O2">
-        <v>0.1848224045690857</v>
+        <v>0.1826211768903936</v>
       </c>
       <c r="P2">
-        <v>0.1848224045690857</v>
+        <v>0.1826211768903936</v>
       </c>
       <c r="Q2">
-        <v>3.814905963655278</v>
+        <v>4.155534062534667</v>
       </c>
       <c r="R2">
-        <v>3.814905963655278</v>
+        <v>37.399806562812</v>
       </c>
       <c r="S2">
-        <v>0.030471073114021</v>
+        <v>0.02997014285647014</v>
       </c>
       <c r="T2">
-        <v>0.030471073114021</v>
+        <v>0.02997014285647014</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.26128717074901</v>
+        <v>4.406520666666666</v>
       </c>
       <c r="H3">
-        <v>4.26128717074901</v>
+        <v>13.219562</v>
       </c>
       <c r="I3">
-        <v>0.1648667713476862</v>
+        <v>0.1641109939536627</v>
       </c>
       <c r="J3">
-        <v>0.1648667713476862</v>
+        <v>0.1641109939536626</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.07333574434703</v>
+        <v>1.117584666666667</v>
       </c>
       <c r="N3">
-        <v>1.07333574434703</v>
+        <v>3.352754</v>
       </c>
       <c r="O3">
-        <v>0.2215884777817325</v>
+        <v>0.2164215666972679</v>
       </c>
       <c r="P3">
-        <v>0.2215884777817325</v>
+        <v>0.2164215666972679</v>
       </c>
       <c r="Q3">
-        <v>4.573791837292338</v>
+        <v>4.924659930416444</v>
       </c>
       <c r="R3">
-        <v>4.573791837292338</v>
+        <v>44.321939373748</v>
       </c>
       <c r="S3">
-        <v>0.03653257689972272</v>
+        <v>0.03551715842369753</v>
       </c>
       <c r="T3">
-        <v>0.03653257689972272</v>
+        <v>0.03551715842369752</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.26128717074901</v>
+        <v>4.406520666666666</v>
       </c>
       <c r="H4">
-        <v>4.26128717074901</v>
+        <v>13.219562</v>
       </c>
       <c r="I4">
-        <v>0.1648667713476862</v>
+        <v>0.1641109939536627</v>
       </c>
       <c r="J4">
-        <v>0.1648667713476862</v>
+        <v>0.1641109939536626</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.23273215879789</v>
+        <v>1.272224666666667</v>
       </c>
       <c r="N4">
-        <v>1.23273215879789</v>
+        <v>3.816674</v>
       </c>
       <c r="O4">
-        <v>0.2544956170697468</v>
+        <v>0.2463677820241891</v>
       </c>
       <c r="P4">
-        <v>0.2544956170697468</v>
+        <v>0.2463677820241891</v>
       </c>
       <c r="Q4">
-        <v>5.25302573325518</v>
+        <v>5.606084286309777</v>
       </c>
       <c r="R4">
-        <v>5.25302573325518</v>
+        <v>50.454758576788</v>
       </c>
       <c r="S4">
-        <v>0.04195787070842624</v>
+        <v>0.04043166158614897</v>
       </c>
       <c r="T4">
-        <v>0.04195787070842624</v>
+        <v>0.04043166158614897</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>4.26128717074901</v>
+        <v>4.406520666666666</v>
       </c>
       <c r="H5">
-        <v>4.26128717074901</v>
+        <v>13.219562</v>
       </c>
       <c r="I5">
-        <v>0.1648667713476862</v>
+        <v>0.1641109939536627</v>
       </c>
       <c r="J5">
-        <v>0.1648667713476862</v>
+        <v>0.1641109939536626</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.37536151994708</v>
+        <v>1.473373333333333</v>
       </c>
       <c r="N5">
-        <v>1.37536151994708</v>
+        <v>4.42012</v>
       </c>
       <c r="O5">
-        <v>0.2839412245513621</v>
+        <v>0.2853204545844782</v>
       </c>
       <c r="P5">
-        <v>0.2839412245513621</v>
+        <v>0.2853204545844782</v>
       </c>
       <c r="Q5">
-        <v>5.86081040009235</v>
+        <v>6.492450043048888</v>
       </c>
       <c r="R5">
-        <v>5.86081040009235</v>
+        <v>58.43205038744</v>
       </c>
       <c r="S5">
-        <v>0.04681247294429142</v>
+        <v>0.04682422339716958</v>
       </c>
       <c r="T5">
-        <v>0.04681247294429142</v>
+        <v>0.04682422339716957</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>4.26128717074901</v>
+        <v>4.406520666666666</v>
       </c>
       <c r="H6">
-        <v>4.26128717074901</v>
+        <v>13.219562</v>
       </c>
       <c r="I6">
-        <v>0.1648667713476862</v>
+        <v>0.1641109939536627</v>
       </c>
       <c r="J6">
-        <v>0.1648667713476862</v>
+        <v>0.1641109939536626</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.267147957491428</v>
+        <v>0.3577000000000001</v>
       </c>
       <c r="N6">
-        <v>0.267147957491428</v>
+        <v>1.0731</v>
       </c>
       <c r="O6">
-        <v>0.05515227602807293</v>
+        <v>0.06926901980367131</v>
       </c>
       <c r="P6">
-        <v>0.05515227602807293</v>
+        <v>0.0692690198036713</v>
       </c>
       <c r="Q6">
-        <v>1.138394163950024</v>
+        <v>1.576212442466667</v>
       </c>
       <c r="R6">
-        <v>1.138394163950024</v>
+        <v>14.1859119822</v>
       </c>
       <c r="S6">
-        <v>0.009092777681224771</v>
+        <v>0.01136780769017644</v>
       </c>
       <c r="T6">
-        <v>0.009092777681224771</v>
+        <v>0.01136780769017644</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>7.68915128987546</v>
+        <v>7.803964999999999</v>
       </c>
       <c r="H7">
-        <v>7.68915128987546</v>
+        <v>23.411895</v>
       </c>
       <c r="I7">
-        <v>0.2974888799486474</v>
+        <v>0.290641199669761</v>
       </c>
       <c r="J7">
-        <v>0.2974888799486474</v>
+        <v>0.2906411996697609</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.8952473303940059</v>
+        <v>0.943042</v>
       </c>
       <c r="N7">
-        <v>0.8952473303940059</v>
+        <v>2.829126</v>
       </c>
       <c r="O7">
-        <v>0.1848224045690857</v>
+        <v>0.1826211768903936</v>
       </c>
       <c r="P7">
-        <v>0.1848224045690857</v>
+        <v>0.1826211768903936</v>
       </c>
       <c r="Q7">
-        <v>6.883692165256633</v>
+        <v>7.359466761529999</v>
       </c>
       <c r="R7">
-        <v>6.883692165256633</v>
+        <v>66.23520085377</v>
       </c>
       <c r="S7">
-        <v>0.05498261012467309</v>
+        <v>0.05307723793652763</v>
       </c>
       <c r="T7">
-        <v>0.05498261012467309</v>
+        <v>0.05307723793652761</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>7.68915128987546</v>
+        <v>7.803964999999999</v>
       </c>
       <c r="H8">
-        <v>7.68915128987546</v>
+        <v>23.411895</v>
       </c>
       <c r="I8">
-        <v>0.2974888799486474</v>
+        <v>0.290641199669761</v>
       </c>
       <c r="J8">
-        <v>0.2974888799486474</v>
+        <v>0.2906411996697609</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.07333574434703</v>
+        <v>1.117584666666667</v>
       </c>
       <c r="N8">
-        <v>1.07333574434703</v>
+        <v>3.352754</v>
       </c>
       <c r="O8">
-        <v>0.2215884777817325</v>
+        <v>0.2164215666972679</v>
       </c>
       <c r="P8">
-        <v>0.2215884777817325</v>
+        <v>0.2164215666972679</v>
       </c>
       <c r="Q8">
-        <v>8.253040923115403</v>
+        <v>8.721591623203333</v>
       </c>
       <c r="R8">
-        <v>8.253040923115403</v>
+        <v>78.49432460883</v>
       </c>
       <c r="S8">
-        <v>0.06592010806481334</v>
+        <v>0.06290102377930312</v>
       </c>
       <c r="T8">
-        <v>0.06592010806481334</v>
+        <v>0.06290102377930311</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>7.68915128987546</v>
+        <v>7.803964999999999</v>
       </c>
       <c r="H9">
-        <v>7.68915128987546</v>
+        <v>23.411895</v>
       </c>
       <c r="I9">
-        <v>0.2974888799486474</v>
+        <v>0.290641199669761</v>
       </c>
       <c r="J9">
-        <v>0.2974888799486474</v>
+        <v>0.2906411996697609</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.23273215879789</v>
+        <v>1.272224666666667</v>
       </c>
       <c r="N9">
-        <v>1.23273215879789</v>
+        <v>3.816674</v>
       </c>
       <c r="O9">
-        <v>0.2544956170697468</v>
+        <v>0.2463677820241891</v>
       </c>
       <c r="P9">
-        <v>0.2544956170697468</v>
+        <v>0.2463677820241891</v>
       </c>
       <c r="Q9">
-        <v>9.478664068891758</v>
+        <v>9.928396770803332</v>
       </c>
       <c r="R9">
-        <v>9.478664068891758</v>
+        <v>89.35557093722998</v>
       </c>
       <c r="S9">
-        <v>0.07570961607391886</v>
+        <v>0.07160462772748849</v>
       </c>
       <c r="T9">
-        <v>0.07570961607391886</v>
+        <v>0.07160462772748848</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>7.68915128987546</v>
+        <v>7.803964999999999</v>
       </c>
       <c r="H10">
-        <v>7.68915128987546</v>
+        <v>23.411895</v>
       </c>
       <c r="I10">
-        <v>0.2974888799486474</v>
+        <v>0.290641199669761</v>
       </c>
       <c r="J10">
-        <v>0.2974888799486474</v>
+        <v>0.2906411996697609</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.37536151994708</v>
+        <v>1.473373333333333</v>
       </c>
       <c r="N10">
-        <v>1.37536151994708</v>
+        <v>4.42012</v>
       </c>
       <c r="O10">
-        <v>0.2839412245513621</v>
+        <v>0.2853204545844782</v>
       </c>
       <c r="P10">
-        <v>0.2839412245513621</v>
+        <v>0.2853204545844782</v>
       </c>
       <c r="Q10">
-        <v>10.57536280514616</v>
+        <v>11.49815392526666</v>
       </c>
       <c r="R10">
-        <v>10.57536280514616</v>
+        <v>103.4833853274</v>
       </c>
       <c r="S10">
-        <v>0.08446935686303209</v>
+        <v>0.0829258792107543</v>
       </c>
       <c r="T10">
-        <v>0.08446935686303209</v>
+        <v>0.08292587921075428</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>7.68915128987546</v>
+        <v>7.803964999999999</v>
       </c>
       <c r="H11">
-        <v>7.68915128987546</v>
+        <v>23.411895</v>
       </c>
       <c r="I11">
-        <v>0.2974888799486474</v>
+        <v>0.290641199669761</v>
       </c>
       <c r="J11">
-        <v>0.2974888799486474</v>
+        <v>0.2906411996697609</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.267147957491428</v>
+        <v>0.3577000000000001</v>
       </c>
       <c r="N11">
-        <v>0.267147957491428</v>
+        <v>1.0731</v>
       </c>
       <c r="O11">
-        <v>0.05515227602807293</v>
+        <v>0.06926901980367131</v>
       </c>
       <c r="P11">
-        <v>0.05515227602807293</v>
+        <v>0.0692690198036713</v>
       </c>
       <c r="Q11">
-        <v>2.054141061932808</v>
+        <v>2.7914782805</v>
       </c>
       <c r="R11">
-        <v>2.054141061932808</v>
+        <v>25.1233045245</v>
       </c>
       <c r="S11">
-        <v>0.01640718882221005</v>
+        <v>0.02013243101568746</v>
       </c>
       <c r="T11">
-        <v>0.01640718882221005</v>
+        <v>0.02013243101568745</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>4.96862029439474</v>
+        <v>5.304521333333333</v>
       </c>
       <c r="H12">
-        <v>4.96862029439474</v>
+        <v>15.913564</v>
       </c>
       <c r="I12">
-        <v>0.192233086662748</v>
+        <v>0.1975550177369889</v>
       </c>
       <c r="J12">
-        <v>0.192233086662748</v>
+        <v>0.1975550177369888</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.8952473303940059</v>
+        <v>0.943042</v>
       </c>
       <c r="N12">
-        <v>0.8952473303940059</v>
+        <v>2.829126</v>
       </c>
       <c r="O12">
-        <v>0.1848224045690857</v>
+        <v>0.1826211768903936</v>
       </c>
       <c r="P12">
-        <v>0.1848224045690857</v>
+        <v>0.1826211768903936</v>
       </c>
       <c r="Q12">
-        <v>4.448144054298371</v>
+        <v>5.002386407229333</v>
       </c>
       <c r="R12">
-        <v>4.448144054298371</v>
+        <v>45.021477665064</v>
       </c>
       <c r="S12">
-        <v>0.03552898131474653</v>
+        <v>0.03607772983973149</v>
       </c>
       <c r="T12">
-        <v>0.03552898131474653</v>
+        <v>0.03607772983973147</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>4.96862029439474</v>
+        <v>5.304521333333333</v>
       </c>
       <c r="H13">
-        <v>4.96862029439474</v>
+        <v>15.913564</v>
       </c>
       <c r="I13">
-        <v>0.192233086662748</v>
+        <v>0.1975550177369889</v>
       </c>
       <c r="J13">
-        <v>0.192233086662748</v>
+        <v>0.1975550177369888</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.07333574434703</v>
+        <v>1.117584666666667</v>
       </c>
       <c r="N13">
-        <v>1.07333574434703</v>
+        <v>3.352754</v>
       </c>
       <c r="O13">
-        <v>0.2215884777817325</v>
+        <v>0.2164215666972679</v>
       </c>
       <c r="P13">
-        <v>0.2215884777817325</v>
+        <v>0.2164215666972679</v>
       </c>
       <c r="Q13">
-        <v>5.332997762061938</v>
+        <v>5.928251706139555</v>
       </c>
       <c r="R13">
-        <v>5.332997762061938</v>
+        <v>53.354265355256</v>
       </c>
       <c r="S13">
-        <v>0.0425966370528822</v>
+        <v>0.04275516644754567</v>
       </c>
       <c r="T13">
-        <v>0.0425966370528822</v>
+        <v>0.04275516644754566</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>4.96862029439474</v>
+        <v>5.304521333333333</v>
       </c>
       <c r="H14">
-        <v>4.96862029439474</v>
+        <v>15.913564</v>
       </c>
       <c r="I14">
-        <v>0.192233086662748</v>
+        <v>0.1975550177369889</v>
       </c>
       <c r="J14">
-        <v>0.192233086662748</v>
+        <v>0.1975550177369888</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.23273215879789</v>
+        <v>1.272224666666667</v>
       </c>
       <c r="N14">
-        <v>1.23273215879789</v>
+        <v>3.816674</v>
       </c>
       <c r="O14">
-        <v>0.2544956170697468</v>
+        <v>0.2463677820241891</v>
       </c>
       <c r="P14">
-        <v>0.2544956170697468</v>
+        <v>0.2463677820241891</v>
       </c>
       <c r="Q14">
-        <v>6.124978021756236</v>
+        <v>6.748542885126221</v>
       </c>
       <c r="R14">
-        <v>6.124978021756236</v>
+        <v>60.73688596613599</v>
       </c>
       <c r="S14">
-        <v>0.04892247801145817</v>
+        <v>0.04867119154761128</v>
       </c>
       <c r="T14">
-        <v>0.04892247801145817</v>
+        <v>0.04867119154761127</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>4.96862029439474</v>
+        <v>5.304521333333333</v>
       </c>
       <c r="H15">
-        <v>4.96862029439474</v>
+        <v>15.913564</v>
       </c>
       <c r="I15">
-        <v>0.192233086662748</v>
+        <v>0.1975550177369889</v>
       </c>
       <c r="J15">
-        <v>0.192233086662748</v>
+        <v>0.1975550177369888</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>1.37536151994708</v>
+        <v>1.473373333333333</v>
       </c>
       <c r="N15">
-        <v>1.37536151994708</v>
+        <v>4.42012</v>
       </c>
       <c r="O15">
-        <v>0.2839412245513621</v>
+        <v>0.2853204545844782</v>
       </c>
       <c r="P15">
-        <v>0.2839412245513621</v>
+        <v>0.2853204545844782</v>
       </c>
       <c r="Q15">
-        <v>6.833649160138657</v>
+        <v>7.81554027863111</v>
       </c>
       <c r="R15">
-        <v>6.833649160138657</v>
+        <v>70.33986250768</v>
       </c>
       <c r="S15">
-        <v>0.05458289802630878</v>
+        <v>0.05636648746616231</v>
       </c>
       <c r="T15">
-        <v>0.05458289802630878</v>
+        <v>0.0563664874661623</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>4.96862029439474</v>
+        <v>5.304521333333333</v>
       </c>
       <c r="H16">
-        <v>4.96862029439474</v>
+        <v>15.913564</v>
       </c>
       <c r="I16">
-        <v>0.192233086662748</v>
+        <v>0.1975550177369889</v>
       </c>
       <c r="J16">
-        <v>0.192233086662748</v>
+        <v>0.1975550177369888</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.267147957491428</v>
+        <v>0.3577000000000001</v>
       </c>
       <c r="N16">
-        <v>0.267147957491428</v>
+        <v>1.0731</v>
       </c>
       <c r="O16">
-        <v>0.05515227602807293</v>
+        <v>0.06926901980367131</v>
       </c>
       <c r="P16">
-        <v>0.05515227602807293</v>
+        <v>0.0692690198036713</v>
       </c>
       <c r="Q16">
-        <v>1.327356763198013</v>
+        <v>1.897427280933333</v>
       </c>
       <c r="R16">
-        <v>1.327356763198013</v>
+        <v>17.0768455284</v>
       </c>
       <c r="S16">
-        <v>0.01060209225735234</v>
+        <v>0.01368444243593812</v>
       </c>
       <c r="T16">
-        <v>0.01060209225735234</v>
+        <v>0.01368444243593811</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>5.3967144847309</v>
+        <v>5.505257333333334</v>
       </c>
       <c r="H17">
-        <v>5.3967144847309</v>
+        <v>16.515772</v>
       </c>
       <c r="I17">
-        <v>0.2087958068375113</v>
+        <v>0.2050309805144884</v>
       </c>
       <c r="J17">
-        <v>0.2087958068375113</v>
+        <v>0.2050309805144884</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.8952473303940059</v>
+        <v>0.943042</v>
       </c>
       <c r="N17">
-        <v>0.8952473303940059</v>
+        <v>2.829126</v>
       </c>
       <c r="O17">
-        <v>0.1848224045690857</v>
+        <v>0.1826211768903936</v>
       </c>
       <c r="P17">
-        <v>0.1848224045690857</v>
+        <v>0.1826211768903936</v>
       </c>
       <c r="Q17">
-        <v>4.831394235354002</v>
+        <v>5.191688886141334</v>
       </c>
       <c r="R17">
-        <v>4.831394235354002</v>
+        <v>46.72519997527201</v>
       </c>
       <c r="S17">
-        <v>0.03859014308365118</v>
+        <v>0.03744299896054723</v>
       </c>
       <c r="T17">
-        <v>0.03859014308365118</v>
+        <v>0.03744299896054722</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>5.3967144847309</v>
+        <v>5.505257333333334</v>
       </c>
       <c r="H18">
-        <v>5.3967144847309</v>
+        <v>16.515772</v>
       </c>
       <c r="I18">
-        <v>0.2087958068375113</v>
+        <v>0.2050309805144884</v>
       </c>
       <c r="J18">
-        <v>0.2087958068375113</v>
+        <v>0.2050309805144884</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>1.07333574434703</v>
+        <v>1.117584666666667</v>
       </c>
       <c r="N18">
-        <v>1.07333574434703</v>
+        <v>3.352754</v>
       </c>
       <c r="O18">
-        <v>0.2215884777817325</v>
+        <v>0.2164215666972679</v>
       </c>
       <c r="P18">
-        <v>0.2215884777817325</v>
+        <v>0.2164215666972679</v>
       </c>
       <c r="Q18">
-        <v>5.792486558497039</v>
+        <v>6.152591181787556</v>
       </c>
       <c r="R18">
-        <v>5.792486558497039</v>
+        <v>55.373320636088</v>
       </c>
       <c r="S18">
-        <v>0.04626674500433278</v>
+        <v>0.04437312602442259</v>
       </c>
       <c r="T18">
-        <v>0.04626674500433278</v>
+        <v>0.04437312602442257</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>5.3967144847309</v>
+        <v>5.505257333333334</v>
       </c>
       <c r="H19">
-        <v>5.3967144847309</v>
+        <v>16.515772</v>
       </c>
       <c r="I19">
-        <v>0.2087958068375113</v>
+        <v>0.2050309805144884</v>
       </c>
       <c r="J19">
-        <v>0.2087958068375113</v>
+        <v>0.2050309805144884</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>1.23273215879789</v>
+        <v>1.272224666666667</v>
       </c>
       <c r="N19">
-        <v>1.23273215879789</v>
+        <v>3.816674</v>
       </c>
       <c r="O19">
-        <v>0.2544956170697468</v>
+        <v>0.2463677820241891</v>
       </c>
       <c r="P19">
-        <v>0.2544956170697468</v>
+        <v>0.2463677820241891</v>
       </c>
       <c r="Q19">
-        <v>6.652703497178166</v>
+        <v>7.003924175814222</v>
       </c>
       <c r="R19">
-        <v>6.652703497178166</v>
+        <v>63.03531758232801</v>
       </c>
       <c r="S19">
-        <v>0.0531376177026881</v>
+        <v>0.05051302791559924</v>
       </c>
       <c r="T19">
-        <v>0.0531376177026881</v>
+        <v>0.05051302791559924</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>5.3967144847309</v>
+        <v>5.505257333333334</v>
       </c>
       <c r="H20">
-        <v>5.3967144847309</v>
+        <v>16.515772</v>
       </c>
       <c r="I20">
-        <v>0.2087958068375113</v>
+        <v>0.2050309805144884</v>
       </c>
       <c r="J20">
-        <v>0.2087958068375113</v>
+        <v>0.2050309805144884</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.37536151994708</v>
+        <v>1.473373333333333</v>
       </c>
       <c r="N20">
-        <v>1.37536151994708</v>
+        <v>4.42012</v>
       </c>
       <c r="O20">
-        <v>0.2839412245513621</v>
+        <v>0.2853204545844782</v>
       </c>
       <c r="P20">
-        <v>0.2839412245513621</v>
+        <v>0.2853204545844782</v>
       </c>
       <c r="Q20">
-        <v>7.422433436439912</v>
+        <v>8.11129934807111</v>
       </c>
       <c r="R20">
-        <v>7.422433436439912</v>
+        <v>73.00169413264001</v>
       </c>
       <c r="S20">
-        <v>0.05928573707463261</v>
+        <v>0.05849953256429512</v>
       </c>
       <c r="T20">
-        <v>0.05928573707463261</v>
+        <v>0.05849953256429511</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>5.3967144847309</v>
+        <v>5.505257333333334</v>
       </c>
       <c r="H21">
-        <v>5.3967144847309</v>
+        <v>16.515772</v>
       </c>
       <c r="I21">
-        <v>0.2087958068375113</v>
+        <v>0.2050309805144884</v>
       </c>
       <c r="J21">
-        <v>0.2087958068375113</v>
+        <v>0.2050309805144884</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>0.267147957491428</v>
+        <v>0.3577000000000001</v>
       </c>
       <c r="N21">
-        <v>0.267147957491428</v>
+        <v>1.0731</v>
       </c>
       <c r="O21">
-        <v>0.05515227602807293</v>
+        <v>0.06926901980367131</v>
       </c>
       <c r="P21">
-        <v>0.05515227602807293</v>
+        <v>0.0692690198036713</v>
       </c>
       <c r="Q21">
-        <v>1.441721251760264</v>
+        <v>1.969230548133334</v>
       </c>
       <c r="R21">
-        <v>1.441721251760264</v>
+        <v>17.7230749332</v>
       </c>
       <c r="S21">
-        <v>0.01151556397220662</v>
+        <v>0.01420229504962425</v>
       </c>
       <c r="T21">
-        <v>0.01151556397220662</v>
+        <v>0.01420229504962424</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>3.53107956094201</v>
+        <v>3.830591666666667</v>
       </c>
       <c r="H22">
-        <v>3.53107956094201</v>
+        <v>11.491775</v>
       </c>
       <c r="I22">
-        <v>0.136615455203407</v>
+        <v>0.1426618081250992</v>
       </c>
       <c r="J22">
-        <v>0.136615455203407</v>
+        <v>0.1426618081250991</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.8952473303940059</v>
+        <v>0.943042</v>
       </c>
       <c r="N22">
-        <v>0.8952473303940059</v>
+        <v>2.829126</v>
       </c>
       <c r="O22">
-        <v>0.1848224045690857</v>
+        <v>0.1826211768903936</v>
       </c>
       <c r="P22">
-        <v>0.1848224045690857</v>
+        <v>0.1826211768903936</v>
       </c>
       <c r="Q22">
-        <v>3.161189550342173</v>
+        <v>3.612408826516667</v>
       </c>
       <c r="R22">
-        <v>3.161189550342173</v>
+        <v>32.51167943865</v>
       </c>
       <c r="S22">
-        <v>0.0252495969319939</v>
+        <v>0.02605306729711712</v>
       </c>
       <c r="T22">
-        <v>0.0252495969319939</v>
+        <v>0.02605306729711712</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>3.53107956094201</v>
+        <v>3.830591666666667</v>
       </c>
       <c r="H23">
-        <v>3.53107956094201</v>
+        <v>11.491775</v>
       </c>
       <c r="I23">
-        <v>0.136615455203407</v>
+        <v>0.1426618081250992</v>
       </c>
       <c r="J23">
-        <v>0.136615455203407</v>
+        <v>0.1426618081250991</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>1.07333574434703</v>
+        <v>1.117584666666667</v>
       </c>
       <c r="N23">
-        <v>1.07333574434703</v>
+        <v>3.352754</v>
       </c>
       <c r="O23">
-        <v>0.2215884777817325</v>
+        <v>0.2164215666972679</v>
       </c>
       <c r="P23">
-        <v>0.2215884777817325</v>
+        <v>0.2164215666972679</v>
       </c>
       <c r="Q23">
-        <v>3.790033908892276</v>
+        <v>4.281010510927778</v>
       </c>
       <c r="R23">
-        <v>3.790033908892276</v>
+        <v>38.52909459835</v>
       </c>
       <c r="S23">
-        <v>0.03027241075998142</v>
+        <v>0.03087509202229898</v>
       </c>
       <c r="T23">
-        <v>0.03027241075998142</v>
+        <v>0.03087509202229897</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>3.53107956094201</v>
+        <v>3.830591666666667</v>
       </c>
       <c r="H24">
-        <v>3.53107956094201</v>
+        <v>11.491775</v>
       </c>
       <c r="I24">
-        <v>0.136615455203407</v>
+        <v>0.1426618081250992</v>
       </c>
       <c r="J24">
-        <v>0.136615455203407</v>
+        <v>0.1426618081250991</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>1.23273215879789</v>
+        <v>1.272224666666667</v>
       </c>
       <c r="N24">
-        <v>1.23273215879789</v>
+        <v>3.816674</v>
       </c>
       <c r="O24">
-        <v>0.2544956170697468</v>
+        <v>0.2463677820241891</v>
       </c>
       <c r="P24">
-        <v>0.2544956170697468</v>
+        <v>0.2463677820241891</v>
       </c>
       <c r="Q24">
-        <v>4.35287533004715</v>
+        <v>4.873373206261111</v>
       </c>
       <c r="R24">
-        <v>4.35287533004715</v>
+        <v>43.86035885635</v>
       </c>
       <c r="S24">
-        <v>0.03476803457325543</v>
+        <v>0.03514727324734111</v>
       </c>
       <c r="T24">
-        <v>0.03476803457325543</v>
+        <v>0.03514727324734111</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>3.53107956094201</v>
+        <v>3.830591666666667</v>
       </c>
       <c r="H25">
-        <v>3.53107956094201</v>
+        <v>11.491775</v>
       </c>
       <c r="I25">
-        <v>0.136615455203407</v>
+        <v>0.1426618081250992</v>
       </c>
       <c r="J25">
-        <v>0.136615455203407</v>
+        <v>0.1426618081250991</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>1.37536151994708</v>
+        <v>1.473373333333333</v>
       </c>
       <c r="N25">
-        <v>1.37536151994708</v>
+        <v>4.42012</v>
       </c>
       <c r="O25">
-        <v>0.2839412245513621</v>
+        <v>0.2853204545844782</v>
       </c>
       <c r="P25">
-        <v>0.2839412245513621</v>
+        <v>0.2853204545844782</v>
       </c>
       <c r="Q25">
-        <v>4.85651095199127</v>
+        <v>5.643891612555556</v>
       </c>
       <c r="R25">
-        <v>4.85651095199127</v>
+        <v>50.795024513</v>
       </c>
       <c r="S25">
-        <v>0.03879075964309713</v>
+        <v>0.04070433194609689</v>
       </c>
       <c r="T25">
-        <v>0.03879075964309713</v>
+        <v>0.04070433194609688</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>3.53107956094201</v>
+        <v>3.830591666666667</v>
       </c>
       <c r="H26">
-        <v>3.53107956094201</v>
+        <v>11.491775</v>
       </c>
       <c r="I26">
-        <v>0.136615455203407</v>
+        <v>0.1426618081250992</v>
       </c>
       <c r="J26">
-        <v>0.136615455203407</v>
+        <v>0.1426618081250991</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>0.267147957491428</v>
+        <v>0.3577000000000001</v>
       </c>
       <c r="N26">
-        <v>0.267147957491428</v>
+        <v>1.0731</v>
       </c>
       <c r="O26">
-        <v>0.05515227602807293</v>
+        <v>0.06926901980367131</v>
       </c>
       <c r="P26">
-        <v>0.05515227602807293</v>
+        <v>0.0692690198036713</v>
       </c>
       <c r="Q26">
-        <v>0.9433206924453863</v>
+        <v>1.370202639166667</v>
       </c>
       <c r="R26">
-        <v>0.9433206924453863</v>
+        <v>12.3318237525</v>
       </c>
       <c r="S26">
-        <v>0.007534653295079135</v>
+        <v>0.00988204361224505</v>
       </c>
       <c r="T26">
-        <v>0.007534653295079135</v>
+        <v>0.009882043612245046</v>
       </c>
     </row>
   </sheetData>
